--- a/runs/run166/NotionalETEOutput166.xlsx
+++ b/runs/run166/NotionalETEOutput166.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_176.MISSILE_BRAVER0_176</t>
+    <t>MISSILE_BRAVER2_77.MISSILE_BRAVER2_77</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1523.293776689253</v>
+        <v>-1514.685911171256</v>
       </c>
       <c r="J2">
-        <v>2017.305719878099</v>
+        <v>2014.880313372712</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1408.15633377484</v>
+        <v>-1407.971245450557</v>
       </c>
       <c r="J3">
-        <v>2036.95970520346</v>
+        <v>1855.564844328949</v>
       </c>
       <c r="K3">
-        <v>306.3405412230608</v>
+        <v>302.8231568634983</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1443.143207180309</v>
+        <v>-1401.130619545262</v>
       </c>
       <c r="J4">
-        <v>1814.144225810215</v>
+        <v>1921.275419324689</v>
       </c>
       <c r="K4">
-        <v>597.4060012377562</v>
+        <v>577.2716909944953</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1468.125067274427</v>
+        <v>-1445.947481680447</v>
       </c>
       <c r="J5">
-        <v>1880.143836902632</v>
+        <v>1866.76308744728</v>
       </c>
       <c r="K5">
-        <v>874.1939842787674</v>
+        <v>882.9201799266727</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1316.242273459465</v>
+        <v>-1366.819508887293</v>
       </c>
       <c r="J6">
-        <v>1830.815022532138</v>
+        <v>1777.950313044538</v>
       </c>
       <c r="K6">
-        <v>1108.751637922882</v>
+        <v>1105.326100736617</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1362.925663770523</v>
+        <v>-1306.412801979605</v>
       </c>
       <c r="J7">
-        <v>1750.820743421821</v>
+        <v>1700.473265908935</v>
       </c>
       <c r="K7">
-        <v>1364.570183148294</v>
+        <v>1420.467105518998</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1258.706222181188</v>
+        <v>-1347.43854594065</v>
       </c>
       <c r="J8">
-        <v>1672.953523071742</v>
+        <v>1760.506106998012</v>
       </c>
       <c r="K8">
-        <v>1530.72803778407</v>
+        <v>1597.825977475213</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.909471092448</v>
+        <v>-100.4083560402416</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1239.798190068853</v>
+        <v>-1240.53625848133</v>
       </c>
       <c r="J9">
-        <v>1690.862519596819</v>
+        <v>1671.571224901901</v>
       </c>
       <c r="K9">
-        <v>1845.282863914804</v>
+        <v>1887.625016074084</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>228.0499055768088</v>
+        <v>226.0675398475674</v>
       </c>
       <c r="G10">
-        <v>-80.5953569384266</v>
+        <v>-87.34422561194786</v>
       </c>
       <c r="H10">
-        <v>880.1855093982756</v>
+        <v>882.4897131603398</v>
       </c>
       <c r="I10">
-        <v>-1245.910925628466</v>
+        <v>-1208.291799825221</v>
       </c>
       <c r="J10">
-        <v>1625.125842523672</v>
+        <v>1538.738408446553</v>
       </c>
       <c r="K10">
-        <v>2031.473111017842</v>
+        <v>1966.099556070951</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.4270883566539</v>
+        <v>177.1032803599341</v>
       </c>
       <c r="G11">
-        <v>-65.57207335032241</v>
+        <v>-69.69831049681122</v>
       </c>
       <c r="H11">
-        <v>1075.347525233467</v>
+        <v>1017.735458946649</v>
       </c>
       <c r="I11">
-        <v>-1157.463278093078</v>
+        <v>-1260.820003633495</v>
       </c>
       <c r="J11">
-        <v>1634.11525586259</v>
+        <v>1636.347513263762</v>
       </c>
       <c r="K11">
-        <v>2262.553015045422</v>
+        <v>2213.4884249933</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>139.2142260591957</v>
+        <v>138.7561886477432</v>
       </c>
       <c r="G12">
-        <v>-50.82516732768036</v>
+        <v>-51.91409401137469</v>
       </c>
       <c r="H12">
-        <v>1137.196445461258</v>
+        <v>1203.799236486092</v>
       </c>
       <c r="I12">
-        <v>-1198.192088340356</v>
+        <v>-1125.171472350847</v>
       </c>
       <c r="J12">
-        <v>1550.047856131967</v>
+        <v>1456.739712713475</v>
       </c>
       <c r="K12">
-        <v>2374.235744431432</v>
+        <v>2264.888717923308</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.3883967835921</v>
+        <v>124.1874938434804</v>
       </c>
       <c r="G13">
-        <v>-35.23794203336368</v>
+        <v>-33.1171051007764</v>
       </c>
       <c r="H13">
-        <v>1278.80024817807</v>
+        <v>1253.016851891583</v>
       </c>
       <c r="I13">
-        <v>-1101.497842471431</v>
+        <v>-1146.161648802238</v>
       </c>
       <c r="J13">
-        <v>1409.004872536403</v>
+        <v>1443.906065798882</v>
       </c>
       <c r="K13">
-        <v>2452.971344555945</v>
+        <v>2514.490305556411</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.3249658712915</v>
+        <v>107.1918228052446</v>
       </c>
       <c r="G14">
-        <v>-16.79286110155461</v>
+        <v>-17.13163204437278</v>
       </c>
       <c r="H14">
-        <v>1314.574637682812</v>
+        <v>1305.164453877317</v>
       </c>
       <c r="I14">
-        <v>-1059.216024543665</v>
+        <v>-1063.422777947784</v>
       </c>
       <c r="J14">
-        <v>1366.306605979242</v>
+        <v>1368.216439401467</v>
       </c>
       <c r="K14">
-        <v>2760.39903211779</v>
+        <v>2548.498657560457</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.20870090579371</v>
+        <v>102.9192470657972</v>
       </c>
       <c r="G15">
-        <v>-0.9619963829509373</v>
+        <v>-0.9261235815631029</v>
       </c>
       <c r="H15">
-        <v>1321.502218483755</v>
+        <v>1447.560268278792</v>
       </c>
       <c r="I15">
-        <v>-1084.146828239252</v>
+        <v>-1038.345360273509</v>
       </c>
       <c r="J15">
-        <v>1307.586844440591</v>
+        <v>1305.303182906736</v>
       </c>
       <c r="K15">
-        <v>2887.836937748992</v>
+        <v>2665.58104222874</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.7382784260884</v>
+        <v>90.58617036318689</v>
       </c>
       <c r="G16">
-        <v>15.04695103658748</v>
+        <v>16.23928076214953</v>
       </c>
       <c r="H16">
-        <v>1383.935914640626</v>
+        <v>1378.676931589089</v>
       </c>
       <c r="I16">
-        <v>-1039.627705970501</v>
+        <v>-1052.48432460237</v>
       </c>
       <c r="J16">
-        <v>1292.330163506311</v>
+        <v>1365.746804846762</v>
       </c>
       <c r="K16">
-        <v>2949.551096627289</v>
+        <v>2932.217023749714</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.08381279902729</v>
+        <v>88.9346943914053</v>
       </c>
       <c r="G17">
-        <v>33.2895882879216</v>
+        <v>33.07548274160475</v>
       </c>
       <c r="H17">
-        <v>1482.627605223095</v>
+        <v>1408.720091960136</v>
       </c>
       <c r="I17">
-        <v>-929.1078718727517</v>
+        <v>-1014.578585688971</v>
       </c>
       <c r="J17">
-        <v>1281.150782615584</v>
+        <v>1322.696712979086</v>
       </c>
       <c r="K17">
-        <v>3003.86696585316</v>
+        <v>3089.517010834421</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.95634647379011</v>
+        <v>83.9939065292712</v>
       </c>
       <c r="G18">
-        <v>48.78054238054393</v>
+        <v>46.30163330694685</v>
       </c>
       <c r="H18">
-        <v>1521.621419957938</v>
+        <v>1533.444351247647</v>
       </c>
       <c r="I18">
-        <v>-946.6353702116359</v>
+        <v>-973.3648849648946</v>
       </c>
       <c r="J18">
-        <v>1162.910291761562</v>
+        <v>1251.426387101927</v>
       </c>
       <c r="K18">
-        <v>3058.984940714273</v>
+        <v>3032.519723296642</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.4818086305646</v>
+        <v>74.59175981481756</v>
       </c>
       <c r="G19">
-        <v>63.3985547748108</v>
+        <v>65.87881849112556</v>
       </c>
       <c r="H19">
-        <v>1478.230131354956</v>
+        <v>1539.685091753405</v>
       </c>
       <c r="I19">
-        <v>-842.7210611728326</v>
+        <v>-888.9844980245421</v>
       </c>
       <c r="J19">
-        <v>1200.240213130611</v>
+        <v>1177.523690443664</v>
       </c>
       <c r="K19">
-        <v>3029.64198996702</v>
+        <v>3215.880498934269</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.36046983099635</v>
+        <v>77.78663355742736</v>
       </c>
       <c r="G20">
-        <v>83.8601692198544</v>
+        <v>79.88400235931157</v>
       </c>
       <c r="H20">
-        <v>1572.286181907022</v>
+        <v>1533.08182404278</v>
       </c>
       <c r="I20">
-        <v>-801.9463158828879</v>
+        <v>-829.421646026701</v>
       </c>
       <c r="J20">
-        <v>1107.448973795011</v>
+        <v>1161.128262333802</v>
       </c>
       <c r="K20">
-        <v>3197.989564718729</v>
+        <v>3029.147725434947</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.25465708563191</v>
+        <v>68.90933704577216</v>
       </c>
       <c r="G21">
-        <v>102.4131237924685</v>
+        <v>101.0936104135528</v>
       </c>
       <c r="H21">
-        <v>1572.846450237852</v>
+        <v>1654.231456426065</v>
       </c>
       <c r="I21">
-        <v>-762.2436768092972</v>
+        <v>-813.8246231954018</v>
       </c>
       <c r="J21">
-        <v>1069.618184286438</v>
+        <v>1027.407588160321</v>
       </c>
       <c r="K21">
-        <v>3181.286196713353</v>
+        <v>3258.173926202199</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.10072073537145</v>
+        <v>67.85710578796639</v>
       </c>
       <c r="G22">
-        <v>114.486369423024</v>
+        <v>110.9922300125405</v>
       </c>
       <c r="H22">
-        <v>1546.209642504136</v>
+        <v>1674.662996331918</v>
       </c>
       <c r="I22">
-        <v>-776.8129783164287</v>
+        <v>-763.5298992925108</v>
       </c>
       <c r="J22">
-        <v>1045.11066124899</v>
+        <v>1048.424964883005</v>
       </c>
       <c r="K22">
-        <v>3184.395218344798</v>
+        <v>3169.922104162349</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.87359827515198</v>
+        <v>68.65128680776941</v>
       </c>
       <c r="G23">
-        <v>132.1252336607021</v>
+        <v>128.6924623837332</v>
       </c>
       <c r="H23">
-        <v>1638.122337230599</v>
+        <v>1604.852763220521</v>
       </c>
       <c r="I23">
-        <v>-703.9485339557392</v>
+        <v>-671.1616249878288</v>
       </c>
       <c r="J23">
-        <v>1024.877464836813</v>
+        <v>997.9686882334526</v>
       </c>
       <c r="K23">
-        <v>3192.341633698907</v>
+        <v>3098.251209587495</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.19419753860691</v>
+        <v>63.95779849329822</v>
       </c>
       <c r="G24">
-        <v>151.506426924102</v>
+        <v>146.3804152253068</v>
       </c>
       <c r="H24">
-        <v>1667.754013515297</v>
+        <v>1642.49010529622</v>
       </c>
       <c r="I24">
-        <v>-639.5278106581355</v>
+        <v>-674.9602779000919</v>
       </c>
       <c r="J24">
-        <v>907.9168203328724</v>
+        <v>900.0211168100832</v>
       </c>
       <c r="K24">
-        <v>3150.863036179393</v>
+        <v>3143.43838036931</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.76993469644212</v>
+        <v>62.79903473783745</v>
       </c>
       <c r="G25">
-        <v>171.1436263415705</v>
+        <v>163.2875573488393</v>
       </c>
       <c r="H25">
-        <v>1639.603907324665</v>
+        <v>1647.431241879421</v>
       </c>
       <c r="I25">
-        <v>-582.0342791822032</v>
+        <v>-615.3126746961732</v>
       </c>
       <c r="J25">
-        <v>882.6395700328818</v>
+        <v>901.8113695479489</v>
       </c>
       <c r="K25">
-        <v>3058.207731501253</v>
+        <v>3041.717190318063</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.15801483306788</v>
+        <v>57.00006101381939</v>
       </c>
       <c r="G26">
-        <v>174.8738350065416</v>
+        <v>185.5431111627397</v>
       </c>
       <c r="H26">
-        <v>1621.527680195568</v>
+        <v>1705.725348425113</v>
       </c>
       <c r="I26">
-        <v>-547.4583838553716</v>
+        <v>-555.6687580176782</v>
       </c>
       <c r="J26">
-        <v>794.3354025246542</v>
+        <v>844.0429553067545</v>
       </c>
       <c r="K26">
-        <v>2963.089434773393</v>
+        <v>3023.589825533061</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.66331464846935</v>
+        <v>59.53683991420321</v>
       </c>
       <c r="G27">
-        <v>195.918035800002</v>
+        <v>200.1009048593484</v>
       </c>
       <c r="H27">
-        <v>1695.244114396467</v>
+        <v>1764.712477341742</v>
       </c>
       <c r="I27">
-        <v>-510.1599468362147</v>
+        <v>-470.7020057389145</v>
       </c>
       <c r="J27">
-        <v>747.8958522556565</v>
+        <v>777.0409802402141</v>
       </c>
       <c r="K27">
-        <v>2989.007859730057</v>
+        <v>3030.459554693872</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.57376568383704</v>
+        <v>55.96299754047417</v>
       </c>
       <c r="G28">
-        <v>214.0805091753777</v>
+        <v>207.9392467993668</v>
       </c>
       <c r="H28">
-        <v>1766.466496914162</v>
+        <v>1785.058205011082</v>
       </c>
       <c r="I28">
-        <v>-454.9574001898595</v>
+        <v>-427.0753597567986</v>
       </c>
       <c r="J28">
-        <v>710.5915278423711</v>
+        <v>703.454059746968</v>
       </c>
       <c r="K28">
-        <v>3121.237346289019</v>
+        <v>2837.312577090828</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.11038615301139</v>
+        <v>54.36743179037615</v>
       </c>
       <c r="G29">
-        <v>223.0773442329657</v>
+        <v>226.6289038931091</v>
       </c>
       <c r="H29">
-        <v>1771.65900532109</v>
+        <v>1666.99799640761</v>
       </c>
       <c r="I29">
-        <v>-373.4105954578511</v>
+        <v>-393.9062165386913</v>
       </c>
       <c r="J29">
-        <v>719.9768946005676</v>
+        <v>674.8359255889858</v>
       </c>
       <c r="K29">
-        <v>2783.720625166135</v>
+        <v>2895.127546720757</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.48967666035785</v>
+        <v>55.52244726050102</v>
       </c>
       <c r="G30">
-        <v>245.9615478814229</v>
+        <v>244.6474291395664</v>
       </c>
       <c r="H30">
-        <v>1775.494849858346</v>
+        <v>1686.364955508908</v>
       </c>
       <c r="I30">
-        <v>-330.3353797887304</v>
+        <v>-341.0149634169646</v>
       </c>
       <c r="J30">
-        <v>619.5881692417034</v>
+        <v>619.899743325284</v>
       </c>
       <c r="K30">
-        <v>2783.866072040596</v>
+        <v>2872.567798221451</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.7967827163986</v>
+        <v>52.54716396456974</v>
       </c>
       <c r="G31">
-        <v>251.6190073709712</v>
+        <v>264.4849957433642</v>
       </c>
       <c r="H31">
-        <v>1682.849306514512</v>
+        <v>1712.551590466324</v>
       </c>
       <c r="I31">
-        <v>-257.9462347230094</v>
+        <v>-274.5716052407416</v>
       </c>
       <c r="J31">
-        <v>616.4589159799575</v>
+        <v>573.8375592157702</v>
       </c>
       <c r="K31">
-        <v>2591.618373320962</v>
+        <v>2590.534000565404</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.34535510737719</v>
+        <v>50.32256182833817</v>
       </c>
       <c r="G32">
-        <v>267.2644758375609</v>
+        <v>283.3937766982494</v>
       </c>
       <c r="H32">
-        <v>1862.77284215814</v>
+        <v>1700.515980766339</v>
       </c>
       <c r="I32">
-        <v>-209.4966766050142</v>
+        <v>-203.2741866022127</v>
       </c>
       <c r="J32">
-        <v>555.4548202096371</v>
+        <v>565.9965079258816</v>
       </c>
       <c r="K32">
-        <v>2647.844045597104</v>
+        <v>2494.660715770283</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.56947062599349</v>
+        <v>48.81445518911566</v>
       </c>
       <c r="G33">
-        <v>283.8001816619055</v>
+        <v>283.5075094617977</v>
       </c>
       <c r="H33">
-        <v>1767.746041674822</v>
+        <v>1774.445237164263</v>
       </c>
       <c r="I33">
-        <v>-147.3494751757477</v>
+        <v>-145.5243610671035</v>
       </c>
       <c r="J33">
-        <v>510.9633169793938</v>
+        <v>514.7690738147533</v>
       </c>
       <c r="K33">
-        <v>2372.366248674685</v>
+        <v>2334.818254910868</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.97227332369745</v>
+        <v>49.50426849227795</v>
       </c>
       <c r="G34">
-        <v>304.9498198358102</v>
+        <v>313.8701204614434</v>
       </c>
       <c r="H34">
-        <v>1806.391507476002</v>
+        <v>1878.88636246633</v>
       </c>
       <c r="I34">
-        <v>-79.24478815072131</v>
+        <v>-85.41398760050993</v>
       </c>
       <c r="J34">
-        <v>422.0215086983608</v>
+        <v>458.9289014053319</v>
       </c>
       <c r="K34">
-        <v>2299.210378593762</v>
+        <v>2108.6031045205</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.55275149264132</v>
+        <v>47.09374811364929</v>
       </c>
       <c r="G35">
-        <v>328.3993084189365</v>
+        <v>338.0410323046075</v>
       </c>
       <c r="H35">
-        <v>1805.717526670974</v>
+        <v>1750.258386693411</v>
       </c>
       <c r="I35">
-        <v>-19.09587943955406</v>
+        <v>-19.62096349946783</v>
       </c>
       <c r="J35">
-        <v>406.7458002626797</v>
+        <v>376.3791901835691</v>
       </c>
       <c r="K35">
-        <v>1948.606720328117</v>
+        <v>1961.072784289925</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.1583300645555</v>
+        <v>48.56829978400007</v>
       </c>
       <c r="G36">
-        <v>349.6047081871873</v>
+        <v>346.2325424435182</v>
       </c>
       <c r="H36">
-        <v>1769.523382914591</v>
+        <v>1897.96481320241</v>
       </c>
       <c r="I36">
-        <v>47.38794342486133</v>
+        <v>47.51999030392923</v>
       </c>
       <c r="J36">
-        <v>357.410244267539</v>
+        <v>354.4133557874658</v>
       </c>
       <c r="K36">
-        <v>1911.754308834445</v>
+        <v>1823.072895583012</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.64095896298569</v>
+        <v>47.01829067710018</v>
       </c>
       <c r="G37">
-        <v>375.2100206840753</v>
+        <v>365.6807537575697</v>
       </c>
       <c r="H37">
-        <v>1811.889650147051</v>
+        <v>1851.191223238548</v>
       </c>
       <c r="I37">
-        <v>110.043065587305</v>
+        <v>113.8779139332686</v>
       </c>
       <c r="J37">
-        <v>285.2566948970052</v>
+        <v>289.511663829735</v>
       </c>
       <c r="K37">
-        <v>1634.001314735965</v>
+        <v>1558.069115251442</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.14973890773912</v>
+        <v>44.98201875492101</v>
       </c>
       <c r="G38">
-        <v>382.5518110693557</v>
+        <v>391.0276220583952</v>
       </c>
       <c r="H38">
-        <v>1867.895464684093</v>
+        <v>1855.224894116301</v>
       </c>
       <c r="I38">
-        <v>177.4868135654095</v>
+        <v>186.1978603910333</v>
       </c>
       <c r="J38">
-        <v>258.6259179833057</v>
+        <v>241.0257751261383</v>
       </c>
       <c r="K38">
-        <v>1428.365849142334</v>
+        <v>1419.547063274523</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.93024294356201</v>
+        <v>44.50608717893426</v>
       </c>
       <c r="G39">
-        <v>383.7987610561685</v>
+        <v>379.7604814086918</v>
       </c>
       <c r="H39">
-        <v>1884.984675630219</v>
+        <v>1788.164590225396</v>
       </c>
       <c r="I39">
-        <v>256.0215876357442</v>
+        <v>264.6278362341718</v>
       </c>
       <c r="J39">
-        <v>204.6369477621607</v>
+        <v>208.8803486649677</v>
       </c>
       <c r="K39">
-        <v>1175.698302338432</v>
+        <v>1107.411129699024</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.2564726304028</v>
+        <v>46.28853416824852</v>
       </c>
       <c r="G40">
-        <v>425.9127554261533</v>
+        <v>428.1174113819285</v>
       </c>
       <c r="H40">
-        <v>1894.7324610792</v>
+        <v>1840.515266482823</v>
       </c>
       <c r="I40">
-        <v>313.5477670702089</v>
+        <v>326.5583473184388</v>
       </c>
       <c r="J40">
-        <v>151.2917700633399</v>
+        <v>149.4949358907033</v>
       </c>
       <c r="K40">
-        <v>909.7637095535979</v>
+        <v>886.8606674907114</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.36791052575981</v>
+        <v>43.93568962045027</v>
       </c>
       <c r="G41">
-        <v>436.2700281102287</v>
+        <v>444.0795394308622</v>
       </c>
       <c r="H41">
-        <v>1787.807799750693</v>
+        <v>1881.647298497115</v>
       </c>
       <c r="I41">
-        <v>384.3062107859485</v>
+        <v>396.0835905419352</v>
       </c>
       <c r="J41">
-        <v>99.71373454225974</v>
+        <v>101.674956625764</v>
       </c>
       <c r="K41">
-        <v>616.653288833013</v>
+        <v>618.5858512010676</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.95767062676917</v>
+        <v>41.8028823688299</v>
       </c>
       <c r="G42">
-        <v>427.2994858725847</v>
+        <v>464.2497157902137</v>
       </c>
       <c r="H42">
-        <v>1826.874699953349</v>
+        <v>1843.096482402953</v>
       </c>
       <c r="I42">
-        <v>478.0515204307736</v>
+        <v>498.8529649359241</v>
       </c>
       <c r="J42">
-        <v>54.20242503655252</v>
+        <v>55.04130445820095</v>
       </c>
       <c r="K42">
-        <v>327.0250674802558</v>
+        <v>336.4017902248501</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.00644653135936</v>
+        <v>42.54638850880748</v>
       </c>
       <c r="G43">
-        <v>453.3521798368461</v>
+        <v>462.1791418416033</v>
       </c>
       <c r="H43">
-        <v>1991.827981334539</v>
+        <v>1882.009356215817</v>
       </c>
       <c r="I43">
-        <v>530.0151891945879</v>
+        <v>582.6541471023452</v>
       </c>
       <c r="J43">
-        <v>5.035679065863306</v>
+        <v>5.050269685357521</v>
       </c>
       <c r="K43">
-        <v>34.46425215178948</v>
+        <v>34.79467459271424</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.13448131951056</v>
+        <v>41.66846942599391</v>
       </c>
       <c r="G44">
-        <v>481.9835328942519</v>
+        <v>479.8189720318219</v>
       </c>
       <c r="H44">
-        <v>1897.307349573327</v>
+        <v>1996.027345470563</v>
       </c>
       <c r="I44">
-        <v>635.53626228179</v>
+        <v>662.9050605253113</v>
       </c>
       <c r="J44">
-        <v>-44.73219383613566</v>
+        <v>-44.42851397072115</v>
       </c>
       <c r="K44">
-        <v>-272.1221574331593</v>
+        <v>-271.9558586216802</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.27186029708459</v>
+        <v>39.82166945061649</v>
       </c>
       <c r="G45">
-        <v>513.6437062212526</v>
+        <v>516.7240946538484</v>
       </c>
       <c r="H45">
-        <v>1847.894280895597</v>
+        <v>1924.592947748373</v>
       </c>
       <c r="I45">
-        <v>716.5487306137359</v>
+        <v>732.0698358821992</v>
       </c>
       <c r="J45">
-        <v>-91.95912273698906</v>
+        <v>-88.39113676295433</v>
       </c>
       <c r="K45">
-        <v>-589.8091141631248</v>
+        <v>-620.4031344988949</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.28837818707298</v>
+        <v>39.19215965655891</v>
       </c>
       <c r="G46">
-        <v>491.3604088787116</v>
+        <v>502.1144451210158</v>
       </c>
       <c r="H46">
-        <v>1878.230746721867</v>
+        <v>1837.207558769408</v>
       </c>
       <c r="I46">
-        <v>788.4335764357737</v>
+        <v>842.2869680755726</v>
       </c>
       <c r="J46">
-        <v>-133.8805936435914</v>
+        <v>-134.4244907988352</v>
       </c>
       <c r="K46">
-        <v>-937.4515840981401</v>
+        <v>-918.9299998857458</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.26464639168475</v>
+        <v>41.57442210315943</v>
       </c>
       <c r="G47">
-        <v>551.4410883577281</v>
+        <v>520.0084576086613</v>
       </c>
       <c r="H47">
-        <v>1871.002673056024</v>
+        <v>1839.452170984087</v>
       </c>
       <c r="I47">
-        <v>929.6079467534595</v>
+        <v>931.639514753785</v>
       </c>
       <c r="J47">
-        <v>-185.0073591816634</v>
+        <v>-188.664015540244</v>
       </c>
       <c r="K47">
-        <v>-1318.014559345424</v>
+        <v>-1370.115137116053</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.56605178259974</v>
+        <v>40.26659326160225</v>
       </c>
       <c r="G48">
-        <v>537.0400466002528</v>
+        <v>520.316714058578</v>
       </c>
       <c r="H48">
-        <v>1914.570500586843</v>
+        <v>1856.320719000422</v>
       </c>
       <c r="I48">
-        <v>974.101211260722</v>
+        <v>936.9931936448056</v>
       </c>
       <c r="J48">
-        <v>-233.1455624312584</v>
+        <v>-241.7066031308738</v>
       </c>
       <c r="K48">
-        <v>-1622.118235531856</v>
+        <v>-1706.303887397753</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.25041400705454</v>
+        <v>37.62590469862077</v>
       </c>
       <c r="G49">
-        <v>560.1849457409483</v>
+        <v>544.9115149241355</v>
       </c>
       <c r="H49">
-        <v>1958.124693763333</v>
+        <v>1897.532783108487</v>
       </c>
       <c r="I49">
-        <v>1037.773204177026</v>
+        <v>1054.543827384879</v>
       </c>
       <c r="J49">
-        <v>-295.3486431845151</v>
+        <v>-282.4955340979229</v>
       </c>
       <c r="K49">
-        <v>-2084.28630298722</v>
+        <v>-2137.398099739945</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.12438555215248</v>
+        <v>39.56697861489394</v>
       </c>
       <c r="G50">
-        <v>576.153350222598</v>
+        <v>560.0027842455745</v>
       </c>
       <c r="H50">
-        <v>2017.503693061711</v>
+        <v>1960.53013524576</v>
       </c>
       <c r="I50">
-        <v>1206.756635224508</v>
+        <v>1184.980308086408</v>
       </c>
       <c r="J50">
-        <v>-351.0787231659782</v>
+        <v>-336.0037285201575</v>
       </c>
       <c r="K50">
-        <v>-2528.432900965819</v>
+        <v>-2603.113688131918</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.82797310280771</v>
+        <v>38.87135488763168</v>
       </c>
       <c r="G51">
-        <v>573.4626466820771</v>
+        <v>590.0646087720606</v>
       </c>
       <c r="H51">
-        <v>2041.423626948169</v>
+        <v>1989.875741301862</v>
       </c>
       <c r="I51">
-        <v>1215.009257709319</v>
+        <v>1245.526653214359</v>
       </c>
       <c r="J51">
-        <v>-386.6776591906946</v>
+        <v>-370.8952460428596</v>
       </c>
       <c r="K51">
-        <v>-2953.256361011922</v>
+        <v>-2784.113868977274</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.46082872168043</v>
+        <v>36.40379696113433</v>
       </c>
       <c r="G52">
-        <v>595.808458499291</v>
+        <v>636.8911170186688</v>
       </c>
       <c r="H52">
-        <v>1920.830453224209</v>
+        <v>1944.613267504158</v>
       </c>
       <c r="I52">
-        <v>1418.899699753132</v>
+        <v>1368.455970267171</v>
       </c>
       <c r="J52">
-        <v>-417.8405368820242</v>
+        <v>-414.9279397978691</v>
       </c>
       <c r="K52">
-        <v>-3416.585316508922</v>
+        <v>-3277.369293137202</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.98352756817287</v>
+        <v>38.1282792016499</v>
       </c>
       <c r="G53">
-        <v>654.1628920509664</v>
+        <v>605.0427467523665</v>
       </c>
       <c r="H53">
-        <v>1944.640955046908</v>
+        <v>1973.221606249117</v>
       </c>
       <c r="I53">
-        <v>1434.129465281487</v>
+        <v>1476.744761268902</v>
       </c>
       <c r="J53">
-        <v>-502.9823581332028</v>
+        <v>-492.0899873229318</v>
       </c>
       <c r="K53">
-        <v>-3819.01564311895</v>
+        <v>-3730.993231964754</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.76604655835384</v>
+        <v>36.08763574655555</v>
       </c>
       <c r="G54">
-        <v>630.954289803956</v>
+        <v>637.0391910749572</v>
       </c>
       <c r="H54">
-        <v>1929.329974314786</v>
+        <v>2074.8665975362</v>
       </c>
       <c r="I54">
-        <v>1571.40251361778</v>
+        <v>1540.214901902967</v>
       </c>
       <c r="J54">
-        <v>-555.6512434510291</v>
+        <v>-553.814061072907</v>
       </c>
       <c r="K54">
-        <v>-4153.361713140236</v>
+        <v>-4097.89163694361</v>
       </c>
     </row>
   </sheetData>
